--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -482,7 +482,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_041_xyxfl</t>
+    <t>actp_show_gift_bag_xyfl</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2250,6 +2250,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2257,69 +2261,65 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>title|标题</t>
   </si>
@@ -480,6 +480,9 @@
   <si>
     <t>女神礼包</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,6 +1947,9 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="I22" s="3">
         <v>1613433600</v>
       </c>
@@ -2244,12 +2250,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2257,63 +2257,69 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1032,7 +1032,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1985,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>103</v>
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>97</v>
@@ -2073,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>93</v>
@@ -2118,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>94</v>
@@ -2161,7 +2161,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>96</v>
@@ -2208,7 +2208,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>101</v>
@@ -2255,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>90</v>
@@ -2307,12 +2307,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2320,22 +2332,10 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2345,13 +2345,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2363,13 +2363,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
   <si>
     <t>title|标题</t>
   </si>
@@ -260,14 +260,6 @@
     <t>lbdh</t>
   </si>
   <si>
-    <t>暖心好礼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_ty_by_hhl</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -296,10 +288,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢福利--cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>|活动模板</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -316,14 +304,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>福袋榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺岁礼包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>通用礼包1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -471,6 +451,34 @@
   </si>
   <si>
     <t>新年狂欢夜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神的礼物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +558,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,25 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +609,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +673,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -698,56 +691,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1032,7 +980,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1215,13 +1163,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1280,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
@@ -1316,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1492,801 +1440,797 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="24">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="I11" s="26">
+        <v>1614643200</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1615219199</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1614643200</v>
+      </c>
+      <c r="J12" s="26">
+        <v>1615219199</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="22">
+        <v>1</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="24">
+        <v>13</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26">
+        <v>1614643200</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1615219199</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="22">
+        <v>1</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="24">
+        <v>14</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="22">
+        <v>3</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26">
+        <v>1614643200</v>
+      </c>
+      <c r="J15" s="26">
+        <v>1615219199</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="22">
+        <v>1</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="24">
+        <v>15</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1614643200</v>
+      </c>
+      <c r="J16" s="26">
+        <v>1615219199</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="22">
+        <v>1</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="J17" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1613433600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1614009599</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1613433600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1614009599</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1613433600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1614009599</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8">
+        <v>22</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="E23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8">
+        <v>23</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="20">
-        <v>1611619200</v>
-      </c>
-      <c r="J11" s="20">
-        <v>1612195199</v>
-      </c>
-      <c r="K11" s="19" t="s">
+      <c r="M24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8">
+        <v>24</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="L25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28">
-        <v>11</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="26">
-        <v>2</v>
-      </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="30">
-        <v>1612828800</v>
-      </c>
-      <c r="J12" s="30">
-        <v>1613404799</v>
-      </c>
-      <c r="K12" s="29" t="s">
+      <c r="C26" s="8">
+        <v>25</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="26">
-        <v>1</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="L26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="28">
-        <v>12</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="26">
+      <c r="C27" s="8">
+        <v>26</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="26">
-        <v>1</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30">
-        <v>1612828800</v>
-      </c>
-      <c r="J13" s="30">
-        <v>1613404799</v>
-      </c>
-      <c r="K13" s="29" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="26">
-        <v>1</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+      <c r="L27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="K28" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="23">
-        <v>13</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="L28" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21">
-        <v>3</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25">
-        <v>1611014400</v>
-      </c>
-      <c r="J14" s="25">
-        <v>1611590399</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="21">
-        <v>1</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="23">
-        <v>14</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21">
-        <v>3</v>
-      </c>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25">
-        <v>1611014400</v>
-      </c>
-      <c r="J15" s="25">
-        <v>1611590399</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="21">
-        <v>1</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="32">
-        <v>15</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="26">
-        <v>3</v>
-      </c>
-      <c r="G16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="30">
-        <v>1612828800</v>
-      </c>
-      <c r="J16" s="30">
-        <v>1613404799</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="26">
-        <v>1</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="32">
-        <v>16</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="26">
-        <v>1</v>
-      </c>
-      <c r="G17" s="26">
-        <v>1</v>
-      </c>
-      <c r="I17" s="30">
-        <v>1612828800</v>
-      </c>
-      <c r="J17" s="30">
-        <v>1613404799</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="26">
-        <v>1</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="26">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="32">
-        <v>17</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="26">
-        <v>2</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="30">
-        <v>1612828800</v>
-      </c>
-      <c r="J18" s="30">
-        <v>1613404799</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="26">
-        <v>1</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="26">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="32">
-        <v>18</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2</v>
-      </c>
-      <c r="G19" s="26">
-        <v>1</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1612828800</v>
-      </c>
-      <c r="J19" s="30">
-        <v>1613404799</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="N19" s="26">
-        <v>1</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="33">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="35">
-        <v>19</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33">
-        <v>1613433600</v>
-      </c>
-      <c r="J20" s="33">
-        <v>1614009599</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="N20" s="33">
-        <v>1</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="35">
-        <v>20</v>
-      </c>
-      <c r="D21" s="33" t="s">
+      <c r="M28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33">
-        <v>2</v>
-      </c>
-      <c r="G21" s="33">
-        <v>1</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33">
-        <v>1613433600</v>
-      </c>
-      <c r="J21" s="33">
-        <v>1614009599</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="33">
-        <v>1</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="33">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="35">
-        <v>21</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33">
-        <v>2</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33">
-        <v>1613433600</v>
-      </c>
-      <c r="J22" s="33">
-        <v>1614009599</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22" s="33">
-        <v>1</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="37">
-        <v>22</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="39">
-        <v>22</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="37">
-        <v>1</v>
-      </c>
-      <c r="G23" s="37">
-        <v>1</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J23" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="37">
-        <v>1</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="37">
-        <v>23</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="39">
-        <v>23</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="37">
-        <v>2</v>
-      </c>
-      <c r="G24" s="37">
-        <v>1</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J24" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="37">
-        <v>1</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="37">
-        <v>24</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="39">
-        <v>24</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="37">
-        <v>3</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J25" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="N25" s="37">
-        <v>1</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="37">
-        <v>25</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="39">
-        <v>25</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="37">
-        <v>4</v>
-      </c>
-      <c r="G26" s="37">
-        <v>1</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J26" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" s="37">
-        <v>1</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="37">
-        <v>26</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="39">
-        <v>26</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="37">
-        <v>4</v>
-      </c>
-      <c r="G27" s="37">
-        <v>1</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J27" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="N27" s="37">
-        <v>1</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="37">
-        <v>27</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="39">
-        <v>27</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37">
-        <v>5</v>
-      </c>
-      <c r="G28" s="37">
-        <v>1</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J28" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" s="37">
-        <v>1</v>
-      </c>
-      <c r="O28" s="40" t="s">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2300,31 +2244,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2332,44 +2257,63 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
   <si>
     <t>title|标题</t>
   </si>
@@ -483,6 +483,14 @@
   </si>
   <si>
     <t>actp_show_gift_bag_xyfl</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,9 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -702,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -986,7 +994,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,97 +1454,97 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+    <row r="11" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>10</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>1615219199</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="22">
-        <v>1</v>
-      </c>
-      <c r="O11" s="25" t="s">
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>1614643200</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>1615219199</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="22">
-        <v>1</v>
-      </c>
-      <c r="O12" s="25" t="s">
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1583,141 +1591,141 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+    <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>13</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>3</v>
       </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>1614643200</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>1615219199</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="22">
-        <v>1</v>
-      </c>
-      <c r="O14" s="25" t="s">
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+    <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>14</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>3</v>
       </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>1614643200</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>1615219199</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="N15" s="22">
-        <v>1</v>
-      </c>
-      <c r="O15" s="25" t="s">
+      <c r="N15" s="21">
+        <v>1</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+    <row r="16" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>15</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>3</v>
       </c>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26">
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <v>1615219199</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="22">
-        <v>1</v>
-      </c>
-      <c r="O16" s="25" t="s">
+      <c r="N16" s="21">
+        <v>1</v>
+      </c>
+      <c r="O16" s="24" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2112,7 +2120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2134,8 +2142,8 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>93</v>
+      <c r="H26" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="I26" s="3">
         <v>1614038400</v>
@@ -2159,7 +2167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2181,8 +2189,8 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>94</v>
+      <c r="H27" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="I27" s="3">
         <v>1614038400</v>
@@ -2257,12 +2265,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2270,63 +2297,44 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
   <si>
     <t>title|标题</t>
   </si>
@@ -412,84 +412,82 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>捕鱼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天领金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Act_049_XYHL","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ycs_cssl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_xyxfl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_xyxfl_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年狂欢夜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神的礼物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_show_gift_bag_xyfl</t>
+  </si>
+  <si>
     <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
-  </si>
-  <si>
-    <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
-  </si>
-  <si>
-    <t>捕鱼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天领金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新游福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Act_049_XYHL","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ycs_cssl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_task","act_xyxfl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_task","act_xyxfl_cjj","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年狂欢夜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>女神的礼物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>女神礼包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_show_gift_bag_xyfl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +703,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,7 +992,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1465,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>87</v>
@@ -1512,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>64</v>
@@ -1559,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="3">
@@ -1591,7 +1589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1602,10 +1600,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" s="21">
         <v>3</v>
@@ -1613,8 +1611,8 @@
       <c r="G14" s="21">
         <v>1</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>93</v>
+      <c r="H14" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="I14" s="25">
         <v>1614643200</v>
@@ -1629,7 +1627,7 @@
         <v>56</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N14" s="21">
         <v>1</v>
@@ -1638,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1649,10 +1647,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="21">
         <v>3</v>
@@ -1660,8 +1658,8 @@
       <c r="G15" s="21">
         <v>1</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>94</v>
+      <c r="H15" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="I15" s="25">
         <v>1614643200</v>
@@ -1676,7 +1674,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N15" s="21">
         <v>1</v>
@@ -1696,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>65</v>
@@ -1893,7 +1891,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -1954,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -1963,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -1978,7 +1976,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -2134,7 +2132,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
@@ -2142,8 +2140,8 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="29" t="s">
-        <v>112</v>
+      <c r="H26" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="I26" s="3">
         <v>1614038400</v>
@@ -2158,7 +2156,7 @@
         <v>56</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -2178,10 +2176,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -2189,8 +2187,8 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="29" t="s">
-        <v>113</v>
+      <c r="H27" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="I27" s="3">
         <v>1614038400</v>
@@ -2205,7 +2203,7 @@
         <v>55</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -2265,17 +2263,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2286,15 +2282,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2304,13 +2302,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2322,13 +2320,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="113">
   <si>
     <t>title|标题</t>
   </si>
@@ -992,7 +992,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1955,7 +1955,7 @@
         <v>96</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>-20</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -2263,15 +2263,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2282,17 +2284,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2302,13 +2302,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2320,13 +2320,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.2/game_activity_config.xlsx
+++ b/config_3.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>title|标题</t>
   </si>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -983,7 +986,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1600,9 +1603,11 @@
         <v>3</v>
       </c>
       <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="I14" s="26">
         <v>1614643200</v>
       </c>
@@ -1645,9 +1650,11 @@
         <v>3</v>
       </c>
       <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I15" s="26">
         <v>1614643200</v>
       </c>
@@ -2250,7 +2257,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2262,16 +2271,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2282,14 +2289,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2301,13 +2308,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2319,7 +2326,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>